--- a/DES/Book2.xlsx
+++ b/DES/Book2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT01\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\des\DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -69,19 +69,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,9 +116,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,7 +400,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,24 +417,24 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>487</v>
+      <c r="B2" s="1">
+        <v>9041</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>533</v>
+      <c r="B3" s="1">
+        <v>8135</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>673</v>
+      <c r="B4" s="1">
+        <v>11118</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -450,7 +442,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>689</v>
+        <v>9604</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -458,7 +450,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>796</v>
+        <v>9264</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -466,7 +458,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>894</v>
+        <v>11522</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -474,7 +466,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>834</v>
+        <v>7101</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -482,7 +474,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>759</v>
+        <v>5542</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -490,7 +482,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>751</v>
+        <v>7211</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -498,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>754</v>
+        <v>9173</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -506,7 +498,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>624</v>
+        <v>12089</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -514,7 +506,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>514</v>
+        <v>8082</v>
       </c>
     </row>
   </sheetData>
